--- a/model/Outputs/8. Fixed RE/No PV w Bat/Output Files/60/Output_20_41.xlsx
+++ b/model/Outputs/8. Fixed RE/No PV w Bat/Output Files/60/Output_20_41.xlsx
@@ -531,7 +531,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>77180.28518065043</v>
+        <v>5151068.340509114</v>
       </c>
     </row>
     <row r="10">
@@ -541,7 +541,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>77180.28518065043</v>
+        <v>5151068.340509114</v>
       </c>
     </row>
     <row r="11">
@@ -561,7 +561,7 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>1113377263.584957</v>
+        <v>42506325.28677413</v>
       </c>
     </row>
   </sheetData>
@@ -26131,7 +26131,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>12862.09953310561</v>
+        <v>1153868.947025273</v>
       </c>
     </row>
     <row r="3">
@@ -26139,7 +26139,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>23768.48931021959</v>
+        <v>1967982.757164494</v>
       </c>
     </row>
     <row r="4">
@@ -26147,7 +26147,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>34670.46293826351</v>
+        <v>2782096.567303716</v>
       </c>
     </row>
     <row r="5">
@@ -26155,7 +26155,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>45798.75337782151</v>
+        <v>3595394.406008021</v>
       </c>
     </row>
     <row r="6">
@@ -26163,7 +26163,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>56927.04381737952</v>
+        <v>4408692.244712328</v>
       </c>
     </row>
     <row r="7">
@@ -26171,7 +26171,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>68055.33083456894</v>
+        <v>5221990.083416633</v>
       </c>
     </row>
     <row r="8">
@@ -26179,7 +26179,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>79183.55973854235</v>
+        <v>6035287.922120933</v>
       </c>
     </row>
     <row r="9">
@@ -26187,7 +26187,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>90311.85017810039</v>
+        <v>6848585.760825234</v>
       </c>
     </row>
     <row r="10">
@@ -26195,7 +26195,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>101440.1406176584</v>
+        <v>7661883.599529536</v>
       </c>
     </row>
     <row r="11">
@@ -26203,7 +26203,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>112568.4310572165</v>
+        <v>8475181.438233836</v>
       </c>
     </row>
     <row r="12">
@@ -26211,7 +26211,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>123696.7214967745</v>
+        <v>9288479.276938137</v>
       </c>
     </row>
     <row r="13">
@@ -26219,7 +26219,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>134824.9504007479</v>
+        <v>10101777.11564244</v>
       </c>
     </row>
     <row r="14">
@@ -26227,7 +26227,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>145953.240840306</v>
+        <v>10915074.95434676</v>
       </c>
     </row>
     <row r="15">
@@ -26235,7 +26235,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>157081.5312798639</v>
+        <v>11728372.79305107</v>
       </c>
     </row>
     <row r="16">
@@ -26243,7 +26243,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>168209.8217194221</v>
+        <v>12541670.63175538</v>
       </c>
     </row>
   </sheetData>
